--- a/planilhas/CCS.Enf.xlsx
+++ b/planilhas/CCS.Enf.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gibud\OneDrive\Área de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ramon\OneDrive\Documentos\GitHub\analisadorPlanilhas\planilhas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A30105C-C3AA-4CB4-9341-412345F508A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980790BF-7617-4DE4-8B7E-0366405D6015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1D4C9143-3330-4FEE-A923-8B68ED9F796F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1D4C9143-3330-4FEE-A923-8B68ED9F796F}"/>
   </bookViews>
   <sheets>
     <sheet name="Unidade XXX" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="520" uniqueCount="91">
   <si>
     <t>N. Patrimônio</t>
   </si>
@@ -343,9 +343,6 @@
     <t>Komeco</t>
   </si>
   <si>
-    <t>Sim (muito)</t>
-  </si>
-  <si>
     <t>Notificado para a Segurança do Trabalho e feito solicitação de conserto em março de 2023</t>
   </si>
   <si>
@@ -528,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -582,9 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1688,14 +1682,10 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1733,7 +1723,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1839,7 +1829,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1981,7 +1971,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1992,8 +1982,8 @@
   <sheetPr codeName="Planilha1"/>
   <dimension ref="A1:Q1052"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="J30" sqref="J30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2073,7 +2063,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="6"/>
       <c r="N2" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:14" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2836,7 +2826,7 @@
       <c r="K29" s="6"/>
     </row>
     <row r="30" spans="1:11" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A30" s="26">
+      <c r="A30" s="5">
         <v>230396</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -2862,10 +2852,10 @@
         <v>10</v>
       </c>
       <c r="J30" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
         <v>89</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:11" s="7" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -17037,7 +17027,482 @@
   <controls>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <control shapeId="1048" r:id="rId3" name="Control 24">
+        <control shapeId="1067" r:id="rId3" name="Control 43">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>79</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1067" r:id="rId3" name="Control 43"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1066" r:id="rId5" name="Control 42">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>78</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1066" r:id="rId5" name="Control 42"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1065" r:id="rId6" name="Control 41">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>152400</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1065" r:id="rId6" name="Control 41"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1064" r:id="rId7" name="Control 40">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>77</xdr:row>
+                <xdr:rowOff>9525</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1064" r:id="rId7" name="Control 40"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1063" r:id="rId8" name="Control 39">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>76</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1063" r:id="rId8" name="Control 39"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1062" r:id="rId9" name="Control 38">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>75</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1062" r:id="rId9" name="Control 38"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1061" r:id="rId10" name="Control 37">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>74</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1061" r:id="rId10" name="Control 37"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1060" r:id="rId11" name="Control 36">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>73</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1060" r:id="rId11" name="Control 36"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1059" r:id="rId12" name="Control 35">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>72</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1059" r:id="rId12" name="Control 35"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1058" r:id="rId13" name="Control 34">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>71</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1058" r:id="rId13" name="Control 34"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1057" r:id="rId14" name="Control 33">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>70</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1057" r:id="rId14" name="Control 33"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1056" r:id="rId15" name="Control 32">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>69</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1056" r:id="rId15" name="Control 32"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1055" r:id="rId16" name="Control 31">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>68</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1055" r:id="rId16" name="Control 31"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1054" r:id="rId17" name="Control 30">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>61</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>67</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1054" r:id="rId17" name="Control 30"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1053" r:id="rId18" name="Control 29">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>60</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>66</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1053" r:id="rId18" name="Control 29"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1052" r:id="rId19" name="Control 28">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>59</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>65</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1052" r:id="rId19" name="Control 28"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1051" r:id="rId20" name="Control 27">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>58</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>64</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1051" r:id="rId20" name="Control 27"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1050" r:id="rId21" name="Control 26">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>57</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>63</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1050" r:id="rId21" name="Control 26"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1049" r:id="rId22" name="Control 25">
+          <controlPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>15</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>56</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>16</xdr:col>
+                <xdr:colOff>304800</xdr:colOff>
+                <xdr:row>62</xdr:row>
+                <xdr:rowOff>57150</xdr:rowOff>
+              </to>
+            </anchor>
+          </controlPr>
+        </control>
+      </mc:Choice>
+      <mc:Fallback>
+        <control shapeId="1049" r:id="rId22" name="Control 25"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <control shapeId="1048" r:id="rId23" name="Control 24">
           <controlPr defaultSize="0" r:id="rId4">
             <anchor moveWithCells="1">
               <from>
@@ -17057,482 +17522,7 @@
         </control>
       </mc:Choice>
       <mc:Fallback>
-        <control shapeId="1048" r:id="rId3" name="Control 24"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1049" r:id="rId5" name="Control 25">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>56</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1049" r:id="rId5" name="Control 25"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1050" r:id="rId6" name="Control 26">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>57</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1050" r:id="rId6" name="Control 26"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1051" r:id="rId7" name="Control 27">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>58</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1051" r:id="rId7" name="Control 27"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1052" r:id="rId8" name="Control 28">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>59</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1052" r:id="rId8" name="Control 28"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1053" r:id="rId9" name="Control 29">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>60</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1053" r:id="rId9" name="Control 29"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1054" r:id="rId10" name="Control 30">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>61</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1054" r:id="rId10" name="Control 30"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1055" r:id="rId11" name="Control 31">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>62</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1055" r:id="rId11" name="Control 31"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1056" r:id="rId12" name="Control 32">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>63</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1056" r:id="rId12" name="Control 32"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1057" r:id="rId13" name="Control 33">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>64</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1057" r:id="rId13" name="Control 33"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1058" r:id="rId14" name="Control 34">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>65</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1058" r:id="rId14" name="Control 34"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1059" r:id="rId15" name="Control 35">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>66</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1059" r:id="rId15" name="Control 35"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1060" r:id="rId16" name="Control 36">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>67</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1060" r:id="rId16" name="Control 36"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1061" r:id="rId17" name="Control 37">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>68</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1061" r:id="rId17" name="Control 37"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1062" r:id="rId18" name="Control 38">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>69</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>75</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1062" r:id="rId18" name="Control 38"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1063" r:id="rId19" name="Control 39">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>70</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>76</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1063" r:id="rId19" name="Control 39"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1064" r:id="rId20" name="Control 40">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>71</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>9525</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1064" r:id="rId20" name="Control 40"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1065" r:id="rId21" name="Control 41">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>72</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>77</xdr:row>
-                <xdr:rowOff>152400</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1065" r:id="rId21" name="Control 41"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1066" r:id="rId22" name="Control 42">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>73</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>78</xdr:row>
-                <xdr:rowOff>104775</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1066" r:id="rId22" name="Control 42"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <control shapeId="1067" r:id="rId23" name="Control 43">
-          <controlPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>15</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>74</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>304800</xdr:colOff>
-                <xdr:row>79</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
-              </to>
-            </anchor>
-          </controlPr>
-        </control>
-      </mc:Choice>
-      <mc:Fallback>
-        <control shapeId="1067" r:id="rId23" name="Control 43"/>
+        <control shapeId="1048" r:id="rId23" name="Control 24"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </controls>
